--- a/bh3/545063738219893621_2021-07-08_20-05-41.xlsx
+++ b/bh3/545063738219893621_2021-07-08_20-05-41.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11982,7 +11982,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12355,7 +12355,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15415,7 +15415,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15849,7 +15849,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17290,7 +17290,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17436,7 +17436,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17887,7 +17887,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17958,7 +17958,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18104,7 +18104,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18676,7 +18676,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19328,7 +19328,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19906,7 +19906,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21719,7 +21719,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21869,7 +21869,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -22157,7 +22157,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22382,7 +22382,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -23915,7 +23915,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23994,7 +23994,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24069,7 +24069,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -24144,7 +24144,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24867,7 +24867,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24942,7 +24942,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -25092,7 +25092,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -25614,7 +25614,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25994,7 +25994,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26062,7 +26062,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -26771,7 +26771,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26850,7 +26850,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27134,7 +27134,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27280,7 +27280,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -27434,7 +27434,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27588,7 +27588,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -28098,7 +28098,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28320,7 +28320,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28462,7 +28462,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28616,7 +28616,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28758,7 +28758,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28980,7 +28980,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29126,7 +29126,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29343,7 +29343,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29639,7 +29639,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29702,7 +29702,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29927,7 +29927,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29998,7 +29998,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30290,7 +30290,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30361,7 +30361,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30509,7 +30509,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30730,7 +30730,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30797,7 +30797,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -31176,7 +31176,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31475,7 +31475,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31554,7 +31554,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31771,7 +31771,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -32000,7 +32000,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -32068,7 +32068,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32348,7 +32348,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32423,7 +32423,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32573,7 +32573,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32719,7 +32719,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -33082,7 +33082,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -33149,7 +33149,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -33224,7 +33224,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33500,7 +33500,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -33571,7 +33571,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33650,7 +33650,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33855,7 +33855,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -34641,7 +34641,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34788,7 +34788,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -35017,7 +35017,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -35085,7 +35085,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -35295,7 +35295,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35516,7 +35516,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35804,7 +35804,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -36171,7 +36171,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36455,7 +36455,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36597,7 +36597,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36812,7 +36812,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -37100,7 +37100,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37965,7 +37965,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -38549,7 +38549,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38695,7 +38695,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -39419,7 +39419,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39566,7 +39566,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -40460,7 +40460,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40846,7 +40846,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -41004,7 +41004,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -41355,7 +41355,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41430,7 +41430,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41501,7 +41501,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -42061,7 +42061,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -42588,7 +42588,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -42872,7 +42872,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -43168,7 +43168,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -44719,7 +44719,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -44794,7 +44794,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -45773,7 +45773,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -46390,7 +46390,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -46473,7 +46473,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -47144,7 +47144,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -47223,7 +47223,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47302,7 +47302,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -48144,7 +48144,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -48574,7 +48574,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -48712,7 +48712,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -49480,7 +49480,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -50004,7 +50004,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -50674,7 +50674,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -51458,7 +51458,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -51754,7 +51754,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -52828,7 +52828,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -56016,7 +56016,7 @@
         </is>
       </c>
       <c r="I759" t="n">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="J759" t="inlineStr">
         <is>
